--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Alcam-Chl1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Alcam-Chl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.462812</v>
+        <v>0.2753413333333334</v>
       </c>
       <c r="H2">
-        <v>4.388436</v>
+        <v>0.8260240000000001</v>
       </c>
       <c r="I2">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106956</v>
       </c>
       <c r="J2">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106955</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +558,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.338517</v>
+        <v>0.3376143333333333</v>
       </c>
       <c r="N2">
-        <v>1.015551</v>
+        <v>1.012843</v>
       </c>
       <c r="O2">
-        <v>0.03643205886005778</v>
+        <v>0.03796352050975706</v>
       </c>
       <c r="P2">
-        <v>0.03643205886005777</v>
+        <v>0.03796352050975706</v>
       </c>
       <c r="Q2">
-        <v>0.4951867298040001</v>
+        <v>0.09295918069244445</v>
       </c>
       <c r="R2">
-        <v>4.456680568236001</v>
+        <v>0.8366326262320001</v>
       </c>
       <c r="S2">
-        <v>0.0006361003818191406</v>
+        <v>0.0002517125250579627</v>
       </c>
       <c r="T2">
-        <v>0.0006361003818191403</v>
+        <v>0.0002517125250579627</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.462812</v>
+        <v>0.2753413333333334</v>
       </c>
       <c r="H3">
-        <v>4.388436</v>
+        <v>0.8260240000000001</v>
       </c>
       <c r="I3">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106956</v>
       </c>
       <c r="J3">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106955</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>24.256988</v>
       </c>
       <c r="O3">
-        <v>0.8701995415136364</v>
+        <v>0.9092037575842762</v>
       </c>
       <c r="P3">
-        <v>0.8701995415136364</v>
+        <v>0.9092037575842762</v>
       </c>
       <c r="Q3">
-        <v>11.827804376752</v>
+        <v>2.226317139523556</v>
       </c>
       <c r="R3">
-        <v>106.450239390768</v>
+        <v>20.036854255712</v>
       </c>
       <c r="S3">
-        <v>0.01519360359901404</v>
+        <v>0.006028365402911115</v>
       </c>
       <c r="T3">
-        <v>0.01519360359901404</v>
+        <v>0.006028365402911114</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.462812</v>
+        <v>0.2753413333333334</v>
       </c>
       <c r="H4">
-        <v>4.388436</v>
+        <v>0.8260240000000001</v>
       </c>
       <c r="I4">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106956</v>
       </c>
       <c r="J4">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106955</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.002599666666666666</v>
+        <v>0.04203433333333333</v>
       </c>
       <c r="N4">
-        <v>0.007799</v>
+        <v>0.126103</v>
       </c>
       <c r="O4">
-        <v>0.0002797827258794394</v>
+        <v>0.004726609974933821</v>
       </c>
       <c r="P4">
-        <v>0.0002797827258794394</v>
+        <v>0.00472660997493382</v>
       </c>
       <c r="Q4">
-        <v>0.003802823596</v>
+        <v>0.01157378938577778</v>
       </c>
       <c r="R4">
-        <v>0.034225412364</v>
+        <v>0.104164104472</v>
       </c>
       <c r="S4">
-        <v>4.884980545346789E-06</v>
+        <v>3.13392150090234E-05</v>
       </c>
       <c r="T4">
-        <v>4.884980545346787E-06</v>
+        <v>3.133921500902338E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.462812</v>
+        <v>0.2753413333333334</v>
       </c>
       <c r="H5">
-        <v>4.388436</v>
+        <v>0.8260240000000001</v>
       </c>
       <c r="I5">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106956</v>
       </c>
       <c r="J5">
-        <v>0.01745990761220821</v>
+        <v>0.006630378892106955</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8649546666666666</v>
+        <v>0.4200883333333333</v>
       </c>
       <c r="N5">
-        <v>2.594864</v>
+        <v>1.260265</v>
       </c>
       <c r="O5">
-        <v>0.09308861690042643</v>
+        <v>0.04723742591421276</v>
       </c>
       <c r="P5">
-        <v>0.09308861690042641</v>
+        <v>0.04723742591421275</v>
       </c>
       <c r="Q5">
-        <v>1.265266065856</v>
+        <v>0.1156676818177778</v>
       </c>
       <c r="R5">
-        <v>11.387394592704</v>
+        <v>1.04100913636</v>
       </c>
       <c r="S5">
-        <v>0.00162531865082969</v>
+        <v>0.0003132020316990624</v>
       </c>
       <c r="T5">
-        <v>0.001625318650829689</v>
+        <v>0.0003132020316990623</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.641258</v>
+        <v>0.2753413333333334</v>
       </c>
       <c r="H6">
-        <v>4.923774</v>
+        <v>0.8260240000000001</v>
       </c>
       <c r="I6">
-        <v>0.0195898126675182</v>
+        <v>0.006630378892106956</v>
       </c>
       <c r="J6">
-        <v>0.01958981266751819</v>
+        <v>0.006630378892106955</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.338517</v>
+        <v>0.007725333333333333</v>
       </c>
       <c r="N6">
-        <v>1.015551</v>
+        <v>0.023176</v>
       </c>
       <c r="O6">
-        <v>0.03643205886005778</v>
+        <v>0.0008686860168201092</v>
       </c>
       <c r="P6">
-        <v>0.03643205886005777</v>
+        <v>0.0008686860168201091</v>
       </c>
       <c r="Q6">
-        <v>0.555593734386</v>
+        <v>0.002127103580444445</v>
       </c>
       <c r="R6">
-        <v>5.000343609474</v>
+        <v>0.019143932224</v>
       </c>
       <c r="S6">
-        <v>0.0007136972081605283</v>
+        <v>5.759717429792521E-06</v>
       </c>
       <c r="T6">
-        <v>0.0007136972081605281</v>
+        <v>5.759717429792519E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>4.923774</v>
       </c>
       <c r="I7">
-        <v>0.0195898126675182</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="J7">
-        <v>0.01958981266751819</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>8.085662666666666</v>
+        <v>0.3376143333333333</v>
       </c>
       <c r="N7">
-        <v>24.256988</v>
+        <v>1.012843</v>
       </c>
       <c r="O7">
-        <v>0.8701995415136364</v>
+        <v>0.03796352050975706</v>
       </c>
       <c r="P7">
-        <v>0.8701995415136364</v>
+        <v>0.03796352050975706</v>
       </c>
       <c r="Q7">
-        <v>13.270658536968</v>
+        <v>0.5541122254979999</v>
       </c>
       <c r="R7">
-        <v>119.435926832712</v>
+        <v>4.987010029482</v>
       </c>
       <c r="S7">
-        <v>0.01704704600161236</v>
+        <v>0.001500411109549777</v>
       </c>
       <c r="T7">
-        <v>0.01704704600161236</v>
+        <v>0.001500411109549777</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>4.923774</v>
       </c>
       <c r="I8">
-        <v>0.0195898126675182</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="J8">
-        <v>0.01958981266751819</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.002599666666666666</v>
+        <v>8.085662666666666</v>
       </c>
       <c r="N8">
-        <v>0.007799</v>
+        <v>24.256988</v>
       </c>
       <c r="O8">
-        <v>0.0002797827258794394</v>
+        <v>0.9092037575842762</v>
       </c>
       <c r="P8">
-        <v>0.0002797827258794394</v>
+        <v>0.9092037575842762</v>
       </c>
       <c r="Q8">
-        <v>0.004266723713999999</v>
+        <v>13.270658536968</v>
       </c>
       <c r="R8">
-        <v>0.038400513426</v>
+        <v>119.435926832712</v>
       </c>
       <c r="S8">
-        <v>5.480891187585813E-06</v>
+        <v>0.03593395450174967</v>
       </c>
       <c r="T8">
-        <v>5.480891187585811E-06</v>
+        <v>0.03593395450174967</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,45 +980,45 @@
         <v>4.923774</v>
       </c>
       <c r="I9">
-        <v>0.0195898126675182</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="J9">
-        <v>0.01958981266751819</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.8649546666666666</v>
+        <v>0.04203433333333333</v>
       </c>
       <c r="N9">
-        <v>2.594864</v>
+        <v>0.126103</v>
       </c>
       <c r="O9">
-        <v>0.09308861690042643</v>
+        <v>0.004726609974933821</v>
       </c>
       <c r="P9">
-        <v>0.09308861690042641</v>
+        <v>0.00472660997493382</v>
       </c>
       <c r="Q9">
-        <v>1.419613766304</v>
+        <v>0.068989185858</v>
       </c>
       <c r="R9">
-        <v>12.776523896736</v>
+        <v>0.6209026727219999</v>
       </c>
       <c r="S9">
-        <v>0.001823588566557722</v>
+        <v>0.0001868071775660745</v>
       </c>
       <c r="T9">
-        <v>0.001823588566557721</v>
+        <v>0.0001868071775660745</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>41.66413499999999</v>
+        <v>1.641258</v>
       </c>
       <c r="H10">
-        <v>124.992405</v>
+        <v>4.923774</v>
       </c>
       <c r="I10">
-        <v>0.497296951243612</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="J10">
-        <v>0.497296951243612</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.338517</v>
+        <v>0.4200883333333333</v>
       </c>
       <c r="N10">
-        <v>1.015551</v>
+        <v>1.260265</v>
       </c>
       <c r="O10">
-        <v>0.03643205886005778</v>
+        <v>0.04723742591421276</v>
       </c>
       <c r="P10">
-        <v>0.03643205886005777</v>
+        <v>0.04723742591421275</v>
       </c>
       <c r="Q10">
-        <v>14.104017987795</v>
+        <v>0.68947333779</v>
       </c>
       <c r="R10">
-        <v>126.936161890155</v>
+        <v>6.20526004011</v>
       </c>
       <c r="S10">
-        <v>0.01811755179863455</v>
+        <v>0.001866938515620635</v>
       </c>
       <c r="T10">
-        <v>0.01811755179863455</v>
+        <v>0.001866938515620634</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>41.66413499999999</v>
+        <v>1.641258</v>
       </c>
       <c r="H11">
-        <v>124.992405</v>
+        <v>4.923774</v>
       </c>
       <c r="I11">
-        <v>0.497296951243612</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="J11">
-        <v>0.497296951243612</v>
+        <v>0.03952244389885164</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>8.085662666666666</v>
+        <v>0.007725333333333333</v>
       </c>
       <c r="N11">
-        <v>24.256988</v>
+        <v>0.023176</v>
       </c>
       <c r="O11">
-        <v>0.8701995415136364</v>
+        <v>0.0008686860168201092</v>
       </c>
       <c r="P11">
-        <v>0.8701995415136364</v>
+        <v>0.0008686860168201091</v>
       </c>
       <c r="Q11">
-        <v>336.8821409084599</v>
+        <v>0.012679265136</v>
       </c>
       <c r="R11">
-        <v>3031.93926817614</v>
+        <v>0.114113386224</v>
       </c>
       <c r="S11">
-        <v>0.4327475789683203</v>
+        <v>3.433259436548966E-05</v>
       </c>
       <c r="T11">
-        <v>0.4327475789683203</v>
+        <v>3.433259436548966E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>41.66413499999999</v>
+        <v>23.78768866666667</v>
       </c>
       <c r="H12">
-        <v>124.992405</v>
+        <v>71.363066</v>
       </c>
       <c r="I12">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="J12">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.002599666666666666</v>
+        <v>0.3376143333333333</v>
       </c>
       <c r="N12">
-        <v>0.007799</v>
+        <v>1.012843</v>
       </c>
       <c r="O12">
-        <v>0.0002797827258794394</v>
+        <v>0.03796352050975706</v>
       </c>
       <c r="P12">
-        <v>0.0002797827258794394</v>
+        <v>0.03796352050975706</v>
       </c>
       <c r="Q12">
-        <v>0.108312862955</v>
+        <v>8.031064650737555</v>
       </c>
       <c r="R12">
-        <v>0.9748157665949999</v>
+        <v>72.279581856638</v>
       </c>
       <c r="S12">
-        <v>0.0001391350965904724</v>
+        <v>0.02174631431863729</v>
       </c>
       <c r="T12">
-        <v>0.0001391350965904724</v>
+        <v>0.02174631431863729</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>41.66413499999999</v>
+        <v>23.78768866666667</v>
       </c>
       <c r="H13">
-        <v>124.992405</v>
+        <v>71.363066</v>
       </c>
       <c r="I13">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="J13">
-        <v>0.497296951243612</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.8649546666666666</v>
+        <v>8.085662666666666</v>
       </c>
       <c r="N13">
-        <v>2.594864</v>
+        <v>24.256988</v>
       </c>
       <c r="O13">
-        <v>0.09308861690042643</v>
+        <v>0.9092037575842762</v>
       </c>
       <c r="P13">
-        <v>0.09308861690042641</v>
+        <v>0.9092037575842762</v>
       </c>
       <c r="Q13">
-        <v>36.03758800087999</v>
+        <v>192.3392261783564</v>
       </c>
       <c r="R13">
-        <v>324.33829200792</v>
+        <v>1731.053035605208</v>
       </c>
       <c r="S13">
-        <v>0.04629268538006663</v>
+        <v>0.5208113058701229</v>
       </c>
       <c r="T13">
-        <v>0.04629268538006662</v>
+        <v>0.5208113058701229</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,7 +1275,7 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.59762</v>
+        <v>23.78768866666667</v>
       </c>
       <c r="H14">
-        <v>1.79286</v>
+        <v>71.363066</v>
       </c>
       <c r="I14">
-        <v>0.007133103903446152</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="J14">
-        <v>0.007133103903446151</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,43 +1302,43 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.338517</v>
+        <v>0.04203433333333333</v>
       </c>
       <c r="N14">
-        <v>1.015551</v>
+        <v>0.126103</v>
       </c>
       <c r="O14">
-        <v>0.03643205886005778</v>
+        <v>0.004726609974933821</v>
       </c>
       <c r="P14">
-        <v>0.03643205886005777</v>
+        <v>0.00472660997493382</v>
       </c>
       <c r="Q14">
-        <v>0.20230452954</v>
+        <v>0.9998996346442223</v>
       </c>
       <c r="R14">
-        <v>1.82074076586</v>
+        <v>8.999096711798</v>
       </c>
       <c r="S14">
-        <v>0.0002598736612652581</v>
+        <v>0.002707503013323011</v>
       </c>
       <c r="T14">
-        <v>0.000259873661265258</v>
+        <v>0.002707503013323011</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.59762</v>
+        <v>23.78768866666667</v>
       </c>
       <c r="H15">
-        <v>1.79286</v>
+        <v>71.363066</v>
       </c>
       <c r="I15">
-        <v>0.007133103903446152</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="J15">
-        <v>0.007133103903446151</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.085662666666666</v>
+        <v>0.4200883333333333</v>
       </c>
       <c r="N15">
-        <v>24.256988</v>
+        <v>1.260265</v>
       </c>
       <c r="O15">
-        <v>0.8701995415136364</v>
+        <v>0.04723742591421276</v>
       </c>
       <c r="P15">
-        <v>0.8701995415136364</v>
+        <v>0.04723742591421275</v>
       </c>
       <c r="Q15">
-        <v>4.832153722853334</v>
+        <v>9.992930485832224</v>
       </c>
       <c r="R15">
-        <v>43.48938350568</v>
+        <v>89.93637437249001</v>
       </c>
       <c r="S15">
-        <v>0.006207223746347972</v>
+        <v>0.02705860514885074</v>
       </c>
       <c r="T15">
-        <v>0.006207223746347971</v>
+        <v>0.02705860514885073</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.59762</v>
+        <v>23.78768866666667</v>
       </c>
       <c r="H16">
-        <v>1.79286</v>
+        <v>71.363066</v>
       </c>
       <c r="I16">
-        <v>0.007133103903446152</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="J16">
-        <v>0.007133103903446151</v>
+        <v>0.5728213302306416</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.002599666666666666</v>
+        <v>0.007725333333333333</v>
       </c>
       <c r="N16">
-        <v>0.007799</v>
+        <v>0.023176</v>
       </c>
       <c r="O16">
-        <v>0.0002797827258794394</v>
+        <v>0.0008686860168201092</v>
       </c>
       <c r="P16">
-        <v>0.0002797827258794394</v>
+        <v>0.0008686860168201091</v>
       </c>
       <c r="Q16">
-        <v>0.001553612793333333</v>
+        <v>0.1837678241795556</v>
       </c>
       <c r="R16">
-        <v>0.01398251514</v>
+        <v>1.653910417616</v>
       </c>
       <c r="S16">
-        <v>1.995719254087434E-06</v>
+        <v>0.0004976018797076525</v>
       </c>
       <c r="T16">
-        <v>1.995719254087433E-06</v>
+        <v>0.0004976018797076524</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,51 +1470,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.59762</v>
+        <v>0.5982033333333333</v>
       </c>
       <c r="H17">
-        <v>1.79286</v>
+        <v>1.79461</v>
       </c>
       <c r="I17">
-        <v>0.007133103903446152</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="J17">
-        <v>0.007133103903446151</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.8649546666666666</v>
+        <v>0.3376143333333333</v>
       </c>
       <c r="N17">
-        <v>2.594864</v>
+        <v>1.012843</v>
       </c>
       <c r="O17">
-        <v>0.09308861690042643</v>
+        <v>0.03796352050975706</v>
       </c>
       <c r="P17">
-        <v>0.09308861690042641</v>
+        <v>0.03796352050975706</v>
       </c>
       <c r="Q17">
-        <v>0.5169142078933333</v>
+        <v>0.2019620195811111</v>
       </c>
       <c r="R17">
-        <v>4.65222787104</v>
+        <v>1.81765817623</v>
       </c>
       <c r="S17">
-        <v>0.0006640107765788352</v>
+        <v>0.0005468676631602355</v>
       </c>
       <c r="T17">
-        <v>0.000664010776578835</v>
+        <v>0.0005468676631602355</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,7 +1523,7 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1532,51 +1532,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>38.41537433333333</v>
+        <v>0.5982033333333333</v>
       </c>
       <c r="H18">
-        <v>115.246123</v>
+        <v>1.79461</v>
       </c>
       <c r="I18">
-        <v>0.4585202245732156</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="J18">
-        <v>0.4585202245732155</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.338517</v>
+        <v>8.085662666666666</v>
       </c>
       <c r="N18">
-        <v>1.015551</v>
+        <v>24.256988</v>
       </c>
       <c r="O18">
-        <v>0.03643205886005778</v>
+        <v>0.9092037575842762</v>
       </c>
       <c r="P18">
-        <v>0.03643205886005777</v>
+        <v>0.9092037575842762</v>
       </c>
       <c r="Q18">
-        <v>13.004257273197</v>
+        <v>4.836870359408889</v>
       </c>
       <c r="R18">
-        <v>117.038315458773</v>
+        <v>43.53183323468</v>
       </c>
       <c r="S18">
-        <v>0.0167048358101783</v>
+        <v>0.01309715557383116</v>
       </c>
       <c r="T18">
-        <v>0.01670483581017829</v>
+        <v>0.01309715557383116</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,7 +1585,7 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1594,51 +1594,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>38.41537433333333</v>
+        <v>0.5982033333333333</v>
       </c>
       <c r="H19">
-        <v>115.246123</v>
+        <v>1.79461</v>
       </c>
       <c r="I19">
-        <v>0.4585202245732156</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="J19">
-        <v>0.4585202245732155</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>8.085662666666666</v>
+        <v>0.04203433333333333</v>
       </c>
       <c r="N19">
-        <v>24.256988</v>
+        <v>0.126103</v>
       </c>
       <c r="O19">
-        <v>0.8701995415136364</v>
+        <v>0.004726609974933821</v>
       </c>
       <c r="P19">
-        <v>0.8701995415136364</v>
+        <v>0.00472660997493382</v>
       </c>
       <c r="Q19">
-        <v>310.6137580730582</v>
+        <v>0.02514507831444444</v>
       </c>
       <c r="R19">
-        <v>2795.523822657524</v>
+        <v>0.22630570483</v>
       </c>
       <c r="S19">
-        <v>0.3990040891983418</v>
+        <v>6.808720890354694E-05</v>
       </c>
       <c r="T19">
-        <v>0.3990040891983417</v>
+        <v>6.808720890354693E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,7 +1647,7 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1656,108 +1656,418 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>38.41537433333333</v>
+        <v>0.5982033333333333</v>
       </c>
       <c r="H20">
-        <v>115.246123</v>
+        <v>1.79461</v>
       </c>
       <c r="I20">
-        <v>0.4585202245732156</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="J20">
-        <v>0.4585202245732155</v>
+        <v>0.01440508298011203</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.002599666666666666</v>
+        <v>0.4200883333333333</v>
       </c>
       <c r="N20">
-        <v>0.007799</v>
+        <v>1.260265</v>
       </c>
       <c r="O20">
-        <v>0.0002797827258794394</v>
+        <v>0.04723742591421276</v>
       </c>
       <c r="P20">
-        <v>0.0002797827258794394</v>
+        <v>0.04723742591421275</v>
       </c>
       <c r="Q20">
-        <v>0.09986716814188887</v>
+        <v>0.2512982412944444</v>
       </c>
       <c r="R20">
-        <v>0.898804513277</v>
+        <v>2.26168417165</v>
       </c>
       <c r="S20">
-        <v>0.000128286038301947</v>
+        <v>0.0006804590400611293</v>
       </c>
       <c r="T20">
-        <v>0.0001282860383019469</v>
+        <v>0.0006804590400611292</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5982033333333333</v>
+      </c>
+      <c r="H21">
+        <v>1.79461</v>
+      </c>
+      <c r="I21">
+        <v>0.01440508298011203</v>
+      </c>
+      <c r="J21">
+        <v>0.01440508298011203</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.007725333333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.023176</v>
+      </c>
+      <c r="O21">
+        <v>0.0008686860168201092</v>
+      </c>
+      <c r="P21">
+        <v>0.0008686860168201091</v>
+      </c>
+      <c r="Q21">
+        <v>0.004621320151111111</v>
+      </c>
+      <c r="R21">
+        <v>0.04159188136</v>
+      </c>
+      <c r="S21">
+        <v>1.251349415595667E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.251349415595667E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>15.22474833333333</v>
+      </c>
+      <c r="H22">
+        <v>45.674245</v>
+      </c>
+      <c r="I22">
+        <v>0.3666207639982877</v>
+      </c>
+      <c r="J22">
+        <v>0.3666207639982877</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.3376143333333333</v>
+      </c>
+      <c r="N22">
+        <v>1.012843</v>
+      </c>
+      <c r="O22">
+        <v>0.03796352050975706</v>
+      </c>
+      <c r="P22">
+        <v>0.03796352050975706</v>
+      </c>
+      <c r="Q22">
+        <v>5.14009325872611</v>
+      </c>
+      <c r="R22">
+        <v>46.260839328535</v>
+      </c>
+      <c r="S22">
+        <v>0.0139182148933518</v>
+      </c>
+      <c r="T22">
+        <v>0.0139182148933518</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>15.22474833333333</v>
+      </c>
+      <c r="H23">
+        <v>45.674245</v>
+      </c>
+      <c r="I23">
+        <v>0.3666207639982877</v>
+      </c>
+      <c r="J23">
+        <v>0.3666207639982877</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>8.085662666666666</v>
+      </c>
+      <c r="N23">
+        <v>24.256988</v>
+      </c>
+      <c r="O23">
+        <v>0.9092037575842762</v>
+      </c>
+      <c r="P23">
+        <v>0.9092037575842762</v>
+      </c>
+      <c r="Q23">
+        <v>123.1021792082289</v>
+      </c>
+      <c r="R23">
+        <v>1107.91961287406</v>
+      </c>
+      <c r="S23">
+        <v>0.3333329762356613</v>
+      </c>
+      <c r="T23">
+        <v>0.3333329762356613</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>15.22474833333333</v>
+      </c>
+      <c r="H24">
+        <v>45.674245</v>
+      </c>
+      <c r="I24">
+        <v>0.3666207639982877</v>
+      </c>
+      <c r="J24">
+        <v>0.3666207639982877</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.04203433333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.126103</v>
+      </c>
+      <c r="O24">
+        <v>0.004726609974933821</v>
+      </c>
+      <c r="P24">
+        <v>0.00472660997493382</v>
+      </c>
+      <c r="Q24">
+        <v>0.6399621463594444</v>
+      </c>
+      <c r="R24">
+        <v>5.759659317234999</v>
+      </c>
+      <c r="S24">
+        <v>0.001732873360132165</v>
+      </c>
+      <c r="T24">
+        <v>0.001732873360132165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>38.41537433333333</v>
-      </c>
-      <c r="H21">
-        <v>115.246123</v>
-      </c>
-      <c r="I21">
-        <v>0.4585202245732156</v>
-      </c>
-      <c r="J21">
-        <v>0.4585202245732155</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.8649546666666666</v>
-      </c>
-      <c r="N21">
-        <v>2.594864</v>
-      </c>
-      <c r="O21">
-        <v>0.09308861690042643</v>
-      </c>
-      <c r="P21">
-        <v>0.09308861690042641</v>
-      </c>
-      <c r="Q21">
-        <v>33.22755730136355</v>
-      </c>
-      <c r="R21">
-        <v>299.048015712272</v>
-      </c>
-      <c r="S21">
-        <v>0.04268301352639355</v>
-      </c>
-      <c r="T21">
-        <v>0.04268301352639355</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>15.22474833333333</v>
+      </c>
+      <c r="H25">
+        <v>45.674245</v>
+      </c>
+      <c r="I25">
+        <v>0.3666207639982877</v>
+      </c>
+      <c r="J25">
+        <v>0.3666207639982877</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.4200883333333333</v>
+      </c>
+      <c r="N25">
+        <v>1.260265</v>
+      </c>
+      <c r="O25">
+        <v>0.04723742591421276</v>
+      </c>
+      <c r="P25">
+        <v>0.04723742591421275</v>
+      </c>
+      <c r="Q25">
+        <v>6.395739152769444</v>
+      </c>
+      <c r="R25">
+        <v>57.561652374925</v>
+      </c>
+      <c r="S25">
+        <v>0.0173182211779812</v>
+      </c>
+      <c r="T25">
+        <v>0.01731822117798119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>15.22474833333333</v>
+      </c>
+      <c r="H26">
+        <v>45.674245</v>
+      </c>
+      <c r="I26">
+        <v>0.3666207639982877</v>
+      </c>
+      <c r="J26">
+        <v>0.3666207639982877</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M26">
+        <v>0.007725333333333333</v>
+      </c>
+      <c r="N26">
+        <v>0.023176</v>
+      </c>
+      <c r="O26">
+        <v>0.0008686860168201092</v>
+      </c>
+      <c r="P26">
+        <v>0.0008686860168201091</v>
+      </c>
+      <c r="Q26">
+        <v>0.1176162557911111</v>
+      </c>
+      <c r="R26">
+        <v>1.05854630212</v>
+      </c>
+      <c r="S26">
+        <v>0.0003184783311612179</v>
+      </c>
+      <c r="T26">
+        <v>0.0003184783311612178</v>
       </c>
     </row>
   </sheetData>
